--- a/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>22,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 25,06</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 30,66</t>
+          <t>5,55; 49,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 30,2</t>
+          <t>0,0; 31,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 23,37</t>
+          <t>0,0; 48,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 33,68</t>
+          <t>5,14; 39,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 34,95</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 27,3</t>
+          <t>5,37; 43,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 17,85</t>
+          <t>8,98; 60,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,42</t>
+          <t>2,8; 24,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 30,48</t>
+          <t>2,71; 23,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,61; 26,45</t>
+          <t>3,35; 27,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,75; 19,38</t>
+          <t>8,19; 44,34</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,11; 25,01</t>
+          <t>13,18; 25,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,71</t>
+          <t>17,76; 30,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,1</t>
+          <t>16,94; 30,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 20,83</t>
+          <t>12,63; 23,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 21,31</t>
+          <t>20,48; 33,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 26,79</t>
+          <t>21,8; 34,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 17,48</t>
+          <t>14,96; 27,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 18,82</t>
+          <t>7,65; 17,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 20,36</t>
+          <t>17,93; 27,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,28</t>
+          <t>21,37; 30,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,57</t>
+          <t>17,61; 26,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,73</t>
+          <t>11,75; 19,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>10,55; 22,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 49,72</t>
+          <t>15,1; 29,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,3</t>
+          <t>16,47; 31,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,42</t>
+          <t>11,13; 24,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 39,75</t>
+          <t>15,29; 31,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>11,04; 25,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 43,88</t>
+          <t>10,19; 24,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 60,17</t>
+          <t>18,54; 34,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 24,29</t>
+          <t>14,33; 24,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 23,86</t>
+          <t>14,82; 25,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 27,32</t>
+          <t>14,78; 25,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 44,34</t>
+          <t>16,32; 27,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>13,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 22,96</t>
+          <t>11,11; 25,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 29,35</t>
+          <t>5,08; 15,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 31,85</t>
+          <t>7,07; 17,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,13; 24,97</t>
+          <t>8,23; 20,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,29; 31,15</t>
+          <t>8,75; 21,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 25,81</t>
+          <t>12,65; 26,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 24,2</t>
+          <t>6,89; 17,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 34,29</t>
+          <t>8,21; 18,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,39</t>
+          <t>11,27; 20,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,09</t>
+          <t>9,96; 18,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,78; 25,52</t>
+          <t>8,15; 15,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 27,05</t>
+          <t>9,72; 17,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 49,72</t>
+          <t>5,24; 46,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,3</t>
+          <t>0,0; 31,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 39,75</t>
+          <t>4,85; 40,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 43,88</t>
+          <t>5,25; 43,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 24,29</t>
+          <t>2,94; 24,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 23,86</t>
+          <t>2,7; 24,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 27,32</t>
+          <t>3,36; 27,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 31,5</t>
+          <t>14,67; 31,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 33,51</t>
+          <t>17,1; 34,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 27,22</t>
+          <t>10,17; 26,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 21,41</t>
+          <t>6,5; 21,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 31,27</t>
+          <t>13,69; 30,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 27,31</t>
+          <t>11,39; 27,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 31,82</t>
+          <t>14,67; 33,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 23,37</t>
+          <t>9,76; 23,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 27,87</t>
+          <t>15,81; 27,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,64; 27,79</t>
+          <t>16,46; 28,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,52</t>
+          <t>14,34; 26,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 20,78</t>
+          <t>9,04; 20,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 25,06</t>
+          <t>13,21; 25,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 30,66</t>
+          <t>17,57; 29,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 30,2</t>
+          <t>16,93; 30,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 23,37</t>
+          <t>12,45; 23,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 33,68</t>
+          <t>20,46; 33,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,8; 34,95</t>
+          <t>21,35; 35,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 27,3</t>
+          <t>15,19; 27,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 17,85</t>
+          <t>8,27; 18,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,42</t>
+          <t>18,37; 27,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,37; 30,48</t>
+          <t>21,15; 30,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 26,45</t>
+          <t>17,23; 26,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 19,38</t>
+          <t>12,14; 19,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 22,96</t>
+          <t>10,82; 23,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 29,35</t>
+          <t>15,1; 29,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,47; 31,85</t>
+          <t>16,85; 31,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 24,97</t>
+          <t>11,38; 26,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 31,15</t>
+          <t>15,62; 30,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 25,81</t>
+          <t>11,82; 25,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 24,2</t>
+          <t>10,38; 23,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 34,29</t>
+          <t>18,75; 34,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,39</t>
+          <t>13,89; 23,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,09</t>
+          <t>14,76; 25,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,78; 25,52</t>
+          <t>15,16; 25,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,32; 27,05</t>
+          <t>16,01; 27,11</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 25,01</t>
+          <t>11,01; 24,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 15,71</t>
+          <t>5,09; 15,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,1</t>
+          <t>6,67; 17,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 20,83</t>
+          <t>8,6; 20,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 21,31</t>
+          <t>8,84; 20,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,65; 26,79</t>
+          <t>12,13; 26,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 17,48</t>
+          <t>6,84; 17,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 18,82</t>
+          <t>8,04; 19,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,27; 20,36</t>
+          <t>11,38; 20,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,28</t>
+          <t>10,03; 18,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,57</t>
+          <t>8,02; 15,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 17,73</t>
+          <t>9,55; 18,04</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,63</t>
+          <t>14,63; 21,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,91</t>
+          <t>16,23; 22,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,83</t>
+          <t>14,88; 21,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,08</t>
+          <t>13,38; 19,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,45</t>
+          <t>17,91; 24,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,13</t>
+          <t>17,25; 24,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,23</t>
+          <t>13,93; 20,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,19</t>
+          <t>13,69; 20,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 21,81</t>
+          <t>16,88; 21,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,31</t>
+          <t>17,58; 22,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,96</t>
+          <t>15,38; 20,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,7</t>
+          <t>14,22; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 46,43</t>
+          <t>5,21; 45,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,2</t>
+          <t>0,0; 36,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,42</t>
+          <t>0,0; 52,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 40,62</t>
+          <t>4,77; 39,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,39 +754,39 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 43,08</t>
+          <t>5,1; 45,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 60,17</t>
+          <t>10,69; 58,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 24,67</t>
+          <t>2,8; 24,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 24,96</t>
+          <t>2,74; 25,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 27,87</t>
+          <t>3,36; 28,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 44,34</t>
+          <t>8,34; 46,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 31,3</t>
+          <t>14,06; 30,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 34,45</t>
+          <t>16,57; 34,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 26,58</t>
+          <t>10,49; 26,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 21,94</t>
+          <t>6,1; 21,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 30,74</t>
+          <t>13,92; 31,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 27,99</t>
+          <t>11,51; 28,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 33,1</t>
+          <t>14,04; 32,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 23,88</t>
+          <t>10,05; 23,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,81; 27,29</t>
+          <t>15,45; 27,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 28,48</t>
+          <t>16,14; 28,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 26,7</t>
+          <t>14,07; 26,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 20,46</t>
+          <t>10,0; 20,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 25,14</t>
+          <t>13,23; 25,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 29,63</t>
+          <t>17,38; 30,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 30,22</t>
+          <t>16,77; 29,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 23,72</t>
+          <t>13,16; 23,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 33,32</t>
+          <t>20,37; 33,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,35; 35,26</t>
+          <t>20,8; 35,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 27,79</t>
+          <t>14,45; 27,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 18,8</t>
+          <t>7,83; 18,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 27,24</t>
+          <t>18,25; 26,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,15; 30,56</t>
+          <t>21,21; 30,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 26,85</t>
+          <t>17,36; 26,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 19,94</t>
+          <t>11,87; 19,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 23,46</t>
+          <t>10,59; 23,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 29,21</t>
+          <t>14,75; 29,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 31,93</t>
+          <t>16,41; 32,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,4</t>
+          <t>12,18; 24,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 30,56</t>
+          <t>14,85; 30,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 25,12</t>
+          <t>11,3; 25,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 23,78</t>
+          <t>10,21; 23,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 34,03</t>
+          <t>18,26; 34,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,81</t>
+          <t>14,46; 23,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 25,29</t>
+          <t>14,84; 25,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,52</t>
+          <t>14,68; 25,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 27,11</t>
+          <t>16,34; 26,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,01; 24,62</t>
+          <t>10,62; 23,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 15,31</t>
+          <t>5,09; 15,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 17,72</t>
+          <t>6,93; 16,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 20,86</t>
+          <t>8,32; 20,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 20,55</t>
+          <t>8,2; 20,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 26,31</t>
+          <t>11,9; 26,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 17,06</t>
+          <t>6,21; 16,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 19,21</t>
+          <t>7,76; 18,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 20,28</t>
+          <t>11,52; 19,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,8</t>
+          <t>9,97; 18,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 15,55</t>
+          <t>7,89; 15,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 18,04</t>
+          <t>9,31; 18,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,12</t>
+          <t>14,56; 20,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,52</t>
+          <t>16,05; 22,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,5</t>
+          <t>14,7; 21,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,57</t>
+          <t>13,05; 19,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,67</t>
+          <t>17,4; 24,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,16</t>
+          <t>17,52; 24,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,44</t>
+          <t>14,12; 20,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,45</t>
+          <t>13,87; 20,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,81</t>
+          <t>16,82; 21,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,42</t>
+          <t>17,6; 22,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,17</t>
+          <t>15,5; 19,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,73</t>
+          <t>14,27; 18,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>13,81; 28,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 45,1</t>
+          <t>8,93; 23,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,78</t>
+          <t>15,02; 31,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,91</t>
+          <t>11,8; 26,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 39,86</t>
+          <t>11,76; 25,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>16,11; 32,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 45,51</t>
+          <t>9,5; 23,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 58,76</t>
+          <t>6,4; 21,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 24,38</t>
+          <t>14,54; 25,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 25,78</t>
+          <t>14,62; 25,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 28,13</t>
+          <t>13,26; 24,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 46,66</t>
+          <t>10,4; 20,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>16,14%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 30,13</t>
+          <t>20,48; 33,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 34,59</t>
+          <t>21,8; 34,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 26,34</t>
+          <t>14,96; 27,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 21,21</t>
+          <t>7,99; 18,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,92; 31,05</t>
+          <t>13,18; 25,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 28,76</t>
+          <t>17,76; 30,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 32,35</t>
+          <t>16,94; 30,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 23,94</t>
+          <t>13,26; 24,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 27,48</t>
+          <t>17,93; 27,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 28,02</t>
+          <t>21,37; 30,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 26,22</t>
+          <t>17,61; 26,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 20,38</t>
+          <t>12,32; 20,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 25,02</t>
+          <t>15,29; 31,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 30,13</t>
+          <t>11,04; 25,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 29,84</t>
+          <t>10,19; 24,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 23,31</t>
+          <t>18,72; 35,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 33,74</t>
+          <t>10,55; 22,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 35,1</t>
+          <t>15,1; 29,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,45; 27,09</t>
+          <t>16,47; 31,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 18,71</t>
+          <t>11,05; 25,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,25; 26,92</t>
+          <t>14,33; 24,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,21; 30,38</t>
+          <t>14,82; 25,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 26,65</t>
+          <t>14,78; 25,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,88</t>
+          <t>16,45; 27,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>13,91%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,53</t>
+          <t>8,75; 21,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 29,3</t>
+          <t>12,65; 26,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,41; 32,57</t>
+          <t>6,89; 17,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 24,73</t>
+          <t>8,58; 19,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 30,82</t>
+          <t>11,11; 25,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 25,74</t>
+          <t>5,08; 15,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 23,94</t>
+          <t>7,07; 17,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 34,11</t>
+          <t>8,64; 22,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,89</t>
+          <t>11,27; 20,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 25,21</t>
+          <t>9,96; 18,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 25,33</t>
+          <t>8,15; 15,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 26,94</t>
+          <t>10,22; 18,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 23,98</t>
+          <t>17,27; 24,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 15,97</t>
+          <t>17,58; 24,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,97</t>
+          <t>13,77; 20,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 20,81</t>
+          <t>14,61; 21,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,25</t>
+          <t>14,55; 20,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 26,35</t>
+          <t>15,99; 22,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 16,31</t>
+          <t>15,31; 21,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 18,89</t>
+          <t>13,19; 19,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 19,8</t>
+          <t>16,81; 21,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 18,56</t>
+          <t>17,74; 22,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,47</t>
+          <t>15,38; 19,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,05</t>
+          <t>14,82; 19,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,01%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>17,6%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14,56; 20,75</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,05; 22,56</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,7; 21,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>13,05; 19,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17,4; 24,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 24,7</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>14,12; 20,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13,87; 20,43</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>16,82; 21,61</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>17,6; 22,55</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 19,87</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>14,27; 18,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
